--- a/biology/Médecine/Jamal_Bellakhdar/Jamal_Bellakhdar.xlsx
+++ b/biology/Médecine/Jamal_Bellakhdar/Jamal_Bellakhdar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jamal Bellakhdar, né le 5 janvier 1947 à Tanger[1], est un pharmacien, docteur en sciences de la vie et chercheur en ethnobotanique et ethnopharmacologie marocain/français. Il a remarquablement répertorié la pharmacopée amazighe (berbère) à travers son œuvre. 
-Directeur d'Al-Biruniya[2], une revue marocaine de pharmacognosie, d'études ethnomédicales et de botanique appliquée qu'il a créée en 1985[3], et président des Graines de Babel[2], une association française[4] soutenant le développement durable, il travaille actuellement[Depuis quand ?] comme chercheur à la fois en France, à Metz[5][réf. à confirmer] et au Maroc, à Rabat.
-Dans le cadre de ses publications sur les plantes médicinales et les traditions maghrébines, il a reçu trois fois le prix du Maroc de la catégorie scientifique : en 1979 pour Médecine traditionnelle et toxicologie ouest-saharienne[6], en 1997 pour La Pharmacopée marocaine traditionnelle[6], et en 2004 pour Le Maghreb à travers ses plantes[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamal Bellakhdar, né le 5 janvier 1947 à Tanger, est un pharmacien, docteur en sciences de la vie et chercheur en ethnobotanique et ethnopharmacologie marocain/français. Il a remarquablement répertorié la pharmacopée amazighe (berbère) à travers son œuvre. 
+Directeur d'Al-Biruniya, une revue marocaine de pharmacognosie, d'études ethnomédicales et de botanique appliquée qu'il a créée en 1985, et président des Graines de Babel, une association française soutenant le développement durable, il travaille actuellement[Depuis quand ?] comme chercheur à la fois en France, à Metz[réf. à confirmer] et au Maroc, à Rabat.
+Dans le cadre de ses publications sur les plantes médicinales et les traditions maghrébines, il a reçu trois fois le prix du Maroc de la catégorie scientifique : en 1979 pour Médecine traditionnelle et toxicologie ouest-saharienne, en 1997 pour La Pharmacopée marocaine traditionnelle, et en 2004 pour Le Maghreb à travers ses plantes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">J. BELLAKHDAR - Médecine traditionnelle et toxicologie ouest-sahariennes - contribution à l'étude de la pharmacopée marocaine - Editions Techniques Nord-Africaines, Rabat, 1978, 358 pages . Ouvrage couronné du Prix Maroc 1979.
 J. BELLAKHDAR,  G. HONDA et W. MIKI - Herbs drugs and herbalists in the Maghreb  - editor : Institut for the study of langages and culture of Asia and Africa, Tokyo, 1982, 339 pages dont 53 p de photos noir et blanc.
